--- a/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EA6A2-7BF3-724E-AAE9-B4455C40F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A861F1-D62E-E54B-B971-08D8CB962241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="8440" windowWidth="27720" windowHeight="17100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="8440" windowWidth="27720" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -872,9 +872,6 @@
     <t>DictionaryFile</t>
   </si>
   <si>
-    <t>DIGGS Roles Codelist</t>
-  </si>
-  <si>
     <t>DIGGS standard code list for the rolePerformed property of the Role object, which can occur in various locations in a DIGGS instance. The context for allowable codes is given by the Source Element Xpath identifying which specific rolePerformed instances may use a specific code value.</t>
   </si>
   <si>
@@ -882,6 +879,9 @@
   </si>
   <si>
     <t>roles</t>
+  </si>
+  <si>
+    <t>DIGGS Roles Definitions</t>
   </si>
 </sst>
 </file>
@@ -1028,16 +1028,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1072,6 +1062,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1226,12 +1226,12 @@
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1518,8 +1518,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1558,16 +1558,16 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1945,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A861F1-D62E-E54B-B971-08D8CB962241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3A482-D77B-B04D-93B5-C9730DB64008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="8440" windowWidth="27720" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="3640" windowWidth="34440" windowHeight="20320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="288">
   <si>
     <t>Description</t>
   </si>
@@ -773,27 +773,6 @@
     <t>Person responsible for the project</t>
   </si>
   <si>
-    <t>Checked By</t>
-  </si>
-  <si>
-    <t>Person checking the associated data</t>
-  </si>
-  <si>
-    <t>Prepared By</t>
-  </si>
-  <si>
-    <t>Person inputting the data</t>
-  </si>
-  <si>
-    <t>Calculated By</t>
-  </si>
-  <si>
-    <t>Person performing calculations on the data (do we really need this)?</t>
-  </si>
-  <si>
-    <t>Tested By</t>
-  </si>
-  <si>
     <t>Person performing the lab testing</t>
   </si>
   <si>
@@ -812,9 +791,6 @@
     <t>Helper</t>
   </si>
   <si>
-    <t>Person assisting with the equipment (drill rig/CPT rig)</t>
-  </si>
-  <si>
     <t>operator</t>
   </si>
   <si>
@@ -836,18 +812,6 @@
     <t>project_manager</t>
   </si>
   <si>
-    <t>checked_by</t>
-  </si>
-  <si>
-    <t>prepared_by</t>
-  </si>
-  <si>
-    <t>calculated_by</t>
-  </si>
-  <si>
-    <t>tested_by</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -860,12 +824,6 @@
     <t>//diggs:rolePerformed</t>
   </si>
   <si>
-    <t>//diggs:Borehole/diggs:role/diggs:Role/diggs:rolePerformed</t>
-  </si>
-  <si>
-    <t>//diggs:Project/diggs:role/diggs:Role/diggs:rolePerformed</t>
-  </si>
-  <si>
     <t>SourceElement</t>
   </si>
   <si>
@@ -882,6 +840,66 @@
   </si>
   <si>
     <t>DIGGS Roles Definitions</t>
+  </si>
+  <si>
+    <t>//diggs:samplingFeature//rolePerformed</t>
+  </si>
+  <si>
+    <t>//diggs:project//diggs:rolePerformed</t>
+  </si>
+  <si>
+    <t>//diggs:samplingActivity//rolePerformed</t>
+  </si>
+  <si>
+    <t>//diggs:sample//rolePerformed</t>
+  </si>
+  <si>
+    <t>/diggs:measurement//diggs:rolePerformed</t>
+  </si>
+  <si>
+    <t>collector</t>
+  </si>
+  <si>
+    <t>checker</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Checker</t>
+  </si>
+  <si>
+    <t>preparer</t>
+  </si>
+  <si>
+    <t>Preparer</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Person performing calculations to obtain derived results</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Person assisting with construction (eg. borehole, actvity, sampling, observation or measurement</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Person that collects or creates a sample</t>
+  </si>
+  <si>
+    <t>Person compiling or inputting the data for  or ppreparing specimen for testing</t>
+  </si>
+  <si>
+    <t>Person checking the associated data, or for accuracy or standards compliance</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1009,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1010,6 +1028,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1199,11 +1230,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11">
       <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(LOWER(Definitions[[#This Row],[Name]])," ","_"),"/","_")</calculatedColumnFormula>
@@ -1220,8 +1251,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D15" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D22" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -1518,7 +1549,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1538,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -1558,16 +1589,16 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1613,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,7 +1678,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="11" t="str">
@@ -1669,7 +1700,7 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="11" t="str">
@@ -1691,7 +1722,7 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="11" t="str">
@@ -1713,7 +1744,7 @@
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="11" t="str">
@@ -1735,7 +1766,7 @@
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="11" t="str">
@@ -1757,12 +1788,11 @@
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B8" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Definitions[[#This Row],[Name]])," ","_"),"/","_")</f>
-        <v>project_manager</v>
+      <c r="B8" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>243</v>
@@ -1779,18 +1809,17 @@
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B9" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Definitions[[#This Row],[Name]])," ","_"),"/","_")</f>
-        <v>checked_by</v>
+      <c r="B9" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4</v>
@@ -1801,18 +1830,17 @@
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B10" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Definitions[[#This Row],[Name]])," ","_"),"/","_")</f>
-        <v>prepared_by</v>
+      <c r="B10" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>4</v>
@@ -1823,18 +1851,17 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B11" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Definitions[[#This Row],[Name]])," ","_"),"/","_")</f>
-        <v>calculated_by</v>
+      <c r="B11" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>4</v>
@@ -1845,18 +1872,18 @@
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="11" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Definitions[[#This Row],[Name]])," ","_"),"/","_")</f>
-        <v>tested_by</v>
+        <v>tester</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>4</v>
@@ -1867,7 +1894,7 @@
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="11" t="str">
@@ -1875,10 +1902,10 @@
         <v>owner</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>4</v>
@@ -1889,7 +1916,7 @@
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="11" t="str">
@@ -1897,10 +1924,10 @@
         <v>client</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>4</v>
@@ -1911,7 +1938,7 @@
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="11" t="str">
@@ -1919,15 +1946,36 @@
         <v>helper</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -1943,11 +1991,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,7 +2014,7 @@
         <v>227</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>226</v>
@@ -1978,10 +2026,10 @@
         <v/>
       </c>
       <c r="B2" s="11" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1991,10 +2039,10 @@
         <v/>
       </c>
       <c r="B3" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2004,10 +2052,10 @@
         <v/>
       </c>
       <c r="B4" s="11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2017,10 +2065,10 @@
         <v/>
       </c>
       <c r="B5" s="11" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -2030,10 +2078,10 @@
         <v/>
       </c>
       <c r="B6" s="11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2043,10 +2091,10 @@
         <v/>
       </c>
       <c r="B7" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2056,10 +2104,10 @@
         <v/>
       </c>
       <c r="B8" s="11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -2069,10 +2117,10 @@
         <v/>
       </c>
       <c r="B9" s="11" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -2082,10 +2130,10 @@
         <v/>
       </c>
       <c r="B10" s="11" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -2095,10 +2143,10 @@
         <v/>
       </c>
       <c r="B11" s="11" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -2108,10 +2156,10 @@
         <v/>
       </c>
       <c r="B12" s="11" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -2121,10 +2169,10 @@
         <v/>
       </c>
       <c r="B13" s="11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -2134,10 +2182,10 @@
         <v/>
       </c>
       <c r="B14" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -2147,12 +2195,103 @@
         <v/>
       </c>
       <c r="B15" s="11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">

--- a/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3A482-D77B-B04D-93B5-C9730DB64008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B7A05-5C92-3E48-BF42-BCB8BFA947E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="3640" windowWidth="34440" windowHeight="20320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="3640" windowWidth="34440" windowHeight="20320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -854,9 +854,6 @@
     <t>//diggs:sample//rolePerformed</t>
   </si>
   <si>
-    <t>/diggs:measurement//diggs:rolePerformed</t>
-  </si>
-  <si>
     <t>collector</t>
   </si>
   <si>
@@ -900,6 +897,9 @@
   </si>
   <si>
     <t>Person checking the associated data, or for accuracy or standards compliance</t>
+  </si>
+  <si>
+    <t>//diggs:measurement//diggs:rolePerformed</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1253,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D22" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
-    <sortCondition ref="C1:C2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="B1:B22"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
@@ -1615,7 +1615,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1813,13 +1813,13 @@
         <v/>
       </c>
       <c r="B9" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4</v>
@@ -1834,13 +1834,13 @@
         <v/>
       </c>
       <c r="B10" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>4</v>
@@ -1855,13 +1855,13 @@
         <v/>
       </c>
       <c r="B11" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>4</v>
@@ -1880,7 +1880,7 @@
         <v>tester</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>245</v>
@@ -1949,7 +1949,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>4</v>
@@ -1964,13 +1964,13 @@
         <v/>
       </c>
       <c r="B16" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>284</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>4</v>
@@ -1993,9 +1993,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,10 +2026,10 @@
         <v/>
       </c>
       <c r="B2" s="11" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -2039,10 +2039,10 @@
         <v/>
       </c>
       <c r="B3" s="11" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2052,36 +2052,36 @@
         <v/>
       </c>
       <c r="B4" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
+      <c r="A5" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>254</v>
+      <c r="B5" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
+      <c r="A6" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>272</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2091,23 +2091,23 @@
         <v/>
       </c>
       <c r="B7" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
+      <c r="A8" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>257</v>
+      <c r="B8" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -2117,20 +2117,20 @@
         <v/>
       </c>
       <c r="B9" s="11" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
+      <c r="A10" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>278</v>
+      <c r="B10" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>261</v>
@@ -2143,7 +2143,7 @@
         <v/>
       </c>
       <c r="B11" s="11" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>261</v>
@@ -2156,22 +2156,22 @@
         <v/>
       </c>
       <c r="B12" s="11" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
+      <c r="A13" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>269</v>
       </c>
       <c r="D13" s="2"/>
@@ -2182,36 +2182,36 @@
         <v/>
       </c>
       <c r="B14" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
+      <c r="A15" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>260</v>
+      <c r="B15" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="str">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2221,33 +2221,33 @@
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="str">
+      <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>253</v>
+      <c r="B18" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="str">
+      <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>260</v>
+      <c r="B19" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>261</v>
@@ -2255,41 +2255,41 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="str">
+      <c r="A20" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>273</v>
+      <c r="B20" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
+      <c r="A21" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>271</v>
+      <c r="B21" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="str">
+      <c r="A22" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>269</v>
+      <c r="B22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="D22" s="2"/>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B7A05-5C92-3E48-BF42-BCB8BFA947E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84BC9C-5679-AE49-8319-E71BC761A9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="3640" windowWidth="34440" windowHeight="20320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,18 +842,9 @@
     <t>DIGGS Roles Definitions</t>
   </si>
   <si>
-    <t>//diggs:samplingFeature//rolePerformed</t>
-  </si>
-  <si>
     <t>//diggs:project//diggs:rolePerformed</t>
   </si>
   <si>
-    <t>//diggs:samplingActivity//rolePerformed</t>
-  </si>
-  <si>
-    <t>//diggs:sample//rolePerformed</t>
-  </si>
-  <si>
     <t>collector</t>
   </si>
   <si>
@@ -900,6 +891,15 @@
   </si>
   <si>
     <t>//diggs:measurement//diggs:rolePerformed</t>
+  </si>
+  <si>
+    <t>//diggs:samplingActivity//diggs:rolePerformed</t>
+  </si>
+  <si>
+    <t>//diggs:sample//diggs:rolePerformed</t>
+  </si>
+  <si>
+    <t>//diggs:samplingFeature//diggs:rolePerformed</t>
   </si>
 </sst>
 </file>
@@ -1813,13 +1813,13 @@
         <v/>
       </c>
       <c r="B9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4</v>
@@ -1834,13 +1834,13 @@
         <v/>
       </c>
       <c r="B10" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>4</v>
@@ -1855,13 +1855,13 @@
         <v/>
       </c>
       <c r="B11" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>4</v>
@@ -1880,7 +1880,7 @@
         <v>tester</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>245</v>
@@ -1949,7 +1949,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>4</v>
@@ -1964,13 +1964,13 @@
         <v/>
       </c>
       <c r="B16" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>4</v>
@@ -2026,7 +2026,7 @@
         <v/>
       </c>
       <c r="B2" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>261</v>
@@ -2039,7 +2039,7 @@
         <v/>
       </c>
       <c r="B3" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>261</v>
@@ -2055,7 +2055,7 @@
         <v>259</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2065,10 +2065,10 @@
         <v/>
       </c>
       <c r="B5" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -2078,10 +2078,10 @@
         <v/>
       </c>
       <c r="B6" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2094,7 +2094,7 @@
         <v>253</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>253</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -2120,7 +2120,7 @@
         <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -2159,7 +2159,7 @@
         <v>255</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -2172,7 +2172,7 @@
         <v>255</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -2185,7 +2185,7 @@
         <v>252</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -2211,7 +2211,7 @@
         <v>251</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2224,7 +2224,7 @@
         <v>251</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -2237,7 +2237,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -2247,7 +2247,7 @@
         <v/>
       </c>
       <c r="B19" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>261</v>
@@ -2263,7 +2263,7 @@
         <v>256</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -2276,7 +2276,7 @@
         <v>257</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -2286,7 +2286,7 @@
         <v/>
       </c>
       <c r="B22" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>261</v>

--- a/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84BC9C-5679-AE49-8319-E71BC761A9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FABE5D-137B-0A4F-B799-B86CCD48F052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="3640" windowWidth="34440" windowHeight="20320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
